--- a/NaiveBayesAccuracyReport.xlsx
+++ b/NaiveBayesAccuracyReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B704686-E377-4571-8C65-F0CE1673CF35}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742DB8F5-0220-4BE3-B8D4-42D2C2406095}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22265" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Naïve Bayes Classifier</t>
   </si>
   <si>
-    <t>DS 3</t>
-  </si>
-  <si>
     <t>Ham Correct Predictions</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>DS2</t>
+  </si>
+  <si>
+    <t>DS3</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,33 +416,33 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
         <v>5</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>338</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>301</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>130</v>
